--- a/Temperature_logging.xlsx
+++ b/Temperature_logging.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -862,18 +862,3288 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2024-02-23</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>02:34:41</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
         <v>24.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>02:56:20</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>02:56:21</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>02:56:22</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>02:56:23</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>02:56:25</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>02:56:26</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>02:56:27</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>02:56:28</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>02:56:29</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>03:29:06</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>03:31:31</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>03:31:42</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>03:31:43</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>03:31:45</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>03:31:46</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>03:31:47</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>03:31:49</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>03:31:50</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>03:31:52</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>03:31:53</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>03:32:50</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>03:32:51</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>03:32:53</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>03:32:54</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>03:32:55</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>03:32:57</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>03:32:58</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>03:33:00</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>03:33:01</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>03:33:40</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>03:34:28</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>03:34:32</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>03:34:50</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>03:34:55</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>03:34:58</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>03:35:00</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>03:35:02</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>03:35:04</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>03:37:25</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>03:37:31</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>03:37:33</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>03:37:35</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>03:37:37</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>03:37:39</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>03:37:41</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>03:37:44</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>03:37:46</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>03:51:44</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>03:53:26</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>03:53:27</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>03:53:28</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>03:53:29</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>03:53:30</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>03:53:32</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>03:53:33</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>03:53:34</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>03:53:38</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>03:53:56</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>03:53:58</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>03:53:59</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>03:54:00</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>03:54:01</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>03:54:03</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>03:54:04</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>03:54:05</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>03:54:09</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>03:56:20</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>03:56:21</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>03:56:22</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>03:56:23</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>03:56:25</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>03:56:26</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>03:56:27</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>03:56:28</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>03:56:32</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>03:56:45</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>03:58:54</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>03:58:56</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>03:58:57</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>03:58:58</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>03:58:59</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>03:59:00</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>03:59:02</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>03:59:03</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>03:59:07</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>04:54:50</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>04:55:00</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>04:55:10</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>04:55:21</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>04:55:31</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>04:55:41</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>04:55:51</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>04:56:02</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>04:56:12</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>04:56:22</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>04:56:32</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>04:56:43</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>04:56:53</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>04:57:03</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>04:57:13</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>04:57:24</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>04:57:34</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>04:57:44</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>04:57:54</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>04:58:05</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>04:58:15</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>04:58:25</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>04:58:35</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>04:58:46</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>04:58:56</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>04:59:06</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>04:59:17</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>04:59:27</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>04:59:37</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>04:59:47</t>
+        </is>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t>04:59:58</t>
+        </is>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>05:00:08</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>05:00:18</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>05:00:28</t>
+        </is>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t>05:00:39</t>
+        </is>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>05:00:49</t>
+        </is>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="inlineStr">
+        <is>
+          <t>05:00:59</t>
+        </is>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t>05:01:09</t>
+        </is>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>05:01:20</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>05:01:30</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>05:01:40</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>05:01:51</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>05:02:01</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>05:02:11</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>05:02:21</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>05:02:31</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>05:02:42</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>05:02:52</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>05:03:02</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>05:03:12</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>05:03:23</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>05:03:33</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>05:03:43</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>05:03:54</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>05:04:04</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>05:04:14</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>05:04:24</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>05:04:35</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>05:04:45</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>05:04:55</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>05:05:06</t>
+        </is>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>05:05:16</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>05:05:26</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>05:05:36</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>05:05:47</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>05:05:57</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>05:06:07</t>
+        </is>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>05:06:17</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>05:06:28</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>05:06:38</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>05:06:48</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>05:06:59</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>05:07:09</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>05:07:19</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>05:07:29</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>05:07:40</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>05:07:50</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>05:08:00</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>05:08:10</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>05:08:21</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>05:08:31</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>05:08:41</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>05:08:51</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>05:09:02</t>
+        </is>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>05:09:12</t>
+        </is>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t>05:09:22</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>05:09:33</t>
+        </is>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>05:09:43</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>05:09:53</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>05:10:04</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>05:10:14</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>05:10:24</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>05:10:34</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>05:10:45</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>05:10:55</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>05:11:05</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>05:11:15</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>05:11:26</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>05:11:36</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>05:11:49</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>05:11:59</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>05:12:09</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>05:12:20</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>05:12:30</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>05:12:40</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>05:12:50</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>05:13:01</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>05:13:11</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>05:13:21</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>05:13:32</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>05:13:42</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>05:13:52</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>05:14:03</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>05:14:13</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>05:14:23</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>05:14:33</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>05:14:44</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>05:14:54</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>05:15:04</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>05:15:15</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>05:15:25</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>05:15:35</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>05:15:46</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>05:15:56</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>05:16:06</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>05:16:17</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>05:16:27</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>05:16:37</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>05:16:48</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>05:16:58</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>05:17:09</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>05:17:19</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>05:17:29</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>22.9</v>
       </c>
     </row>
   </sheetData>
